--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/096_ScatterChartWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/096_ScatterChartWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature vs Sales" sheetId="1" r:id="R6d8b2eab36f54432"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature vs Sales" sheetId="1" r:id="R251f2655ef0941ad"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -219,7 +219,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re6152b0eed8347ed"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdeace37d130f48e1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,6 +304,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R52fff5c57a4b4402"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8dbbd2594aa148e8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/096_ScatterChartWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/096_ScatterChartWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature vs Sales" sheetId="1" r:id="R251f2655ef0941ad"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature vs Sales" sheetId="1" r:id="R48a8810f18144ca8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -219,7 +219,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdeace37d130f48e1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R344196161a1348ba"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,6 +304,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8dbbd2594aa148e8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R42b57d1a11e740e1"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/096_ScatterChartWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/096_ScatterChartWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature vs Sales" sheetId="1" r:id="R48a8810f18144ca8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature vs Sales" sheetId="1" r:id="Rccb5a9d27aeb4d96"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -219,7 +219,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R344196161a1348ba"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3c281c7edd154ff3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,6 +304,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R42b57d1a11e740e1"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3a1417dee4e14117"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/096_ScatterChartWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/096_ScatterChartWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature vs Sales" sheetId="1" r:id="Rccb5a9d27aeb4d96"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature vs Sales" sheetId="1" r:id="Rd29b01b2f9e74613"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -219,7 +219,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3c281c7edd154ff3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R46772ffb0cc544d7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,6 +304,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3a1417dee4e14117"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re96be2533887496a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/096_ScatterChartWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/096_ScatterChartWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature vs Sales" sheetId="1" r:id="Rd29b01b2f9e74613"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature vs Sales" sheetId="1" r:id="Rc7254850836342a9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -219,7 +219,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R46772ffb0cc544d7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R42b46a2dbf2143ca"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,6 +304,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re96be2533887496a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R00507bed819842bb"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/096_ScatterChartWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/096_ScatterChartWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature vs Sales" sheetId="1" r:id="Rc7254850836342a9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature vs Sales" sheetId="1" r:id="R6feac297b1424009"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -219,7 +219,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R42b46a2dbf2143ca"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1261f570fa8e4dfc"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,6 +304,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R00507bed819842bb"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra3a124dceb084c60"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/096_ScatterChartWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/096_ScatterChartWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature vs Sales" sheetId="1" r:id="R6feac297b1424009"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature vs Sales" sheetId="1" r:id="Rd5c6d531b8ee464b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -219,7 +219,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1261f570fa8e4dfc"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5c0a536ded3c44de"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,6 +304,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra3a124dceb084c60"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra5006953f63e47ce"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/096_ScatterChartWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/096_ScatterChartWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature vs Sales" sheetId="1" r:id="Rd5c6d531b8ee464b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature vs Sales" sheetId="1" r:id="R0500fc7eb9bc45f7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -219,7 +219,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5c0a536ded3c44de"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R06698c6978354914"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,6 +304,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra5006953f63e47ce"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc746a354c4104d0f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/096_ScatterChartWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/096_ScatterChartWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature vs Sales" sheetId="1" r:id="R0500fc7eb9bc45f7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature vs Sales" sheetId="1" r:id="R6121a21cc1fc400f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -219,7 +219,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R06698c6978354914"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcd5f328d954c4f38"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,6 +304,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc746a354c4104d0f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rcdc9bf80b94f41c1"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/096_ScatterChartWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/096_ScatterChartWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature vs Sales" sheetId="1" r:id="R6121a21cc1fc400f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature vs Sales" sheetId="1" r:id="Rf028d76025d44d9f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -219,7 +219,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcd5f328d954c4f38"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re47a8fd4d30743af"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,6 +304,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rcdc9bf80b94f41c1"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R106cd2c54ada431c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/096_ScatterChartWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/096_ScatterChartWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature vs Sales" sheetId="1" r:id="Rf028d76025d44d9f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature vs Sales" sheetId="1" r:id="Ra94b69b9e2704119"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -219,7 +219,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re47a8fd4d30743af"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra4abb7ba2b74481d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,6 +304,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R106cd2c54ada431c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd068e0f4fb0c48b4"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/096_ScatterChartWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/096_ScatterChartWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature vs Sales" sheetId="1" r:id="Ra94b69b9e2704119"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature vs Sales" sheetId="1" r:id="R64d46a716c9d4ecf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -219,7 +219,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra4abb7ba2b74481d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7a33f8f36733429e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,6 +304,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd068e0f4fb0c48b4"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2d81709b47004d9d"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/096_ScatterChartWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/096_ScatterChartWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature vs Sales" sheetId="1" r:id="R64d46a716c9d4ecf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Temperature vs Sales" sheetId="1" r:id="Re096492a3c4342d1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -219,7 +219,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7a33f8f36733429e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R906218f92d484772"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,6 +304,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2d81709b47004d9d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0896d772dd3f40c1"/>
 </x:worksheet>
 </file>